--- a/로아템레벨.xlsx
+++ b/로아템레벨.xlsx
@@ -20,7 +20,7 @@
     <x:t>모자</x:t>
   </x:si>
   <x:si>
-    <x:t>견갑</x:t>
+    <x:t>귀걸이</x:t>
   </x:si>
   <x:si>
     <x:t>상의</x:t>
@@ -29,19 +29,19 @@
     <x:t>하의</x:t>
   </x:si>
   <x:si>
-    <x:t>장갑</x:t>
-  </x:si>
-  <x:si>
     <x:t>무기</x:t>
   </x:si>
   <x:si>
     <x:t>목걸이</x:t>
   </x:si>
   <x:si>
-    <x:t>귀걸이</x:t>
+    <x:t>반지</x:t>
   </x:si>
   <x:si>
-    <x:t>반지</x:t>
+    <x:t>견갑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장갑</x:t>
   </x:si>
   <x:si>
     <x:t>평균래밸</x:t>
@@ -811,7 +811,7 @@
   <x:dimension ref="A1:C12"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="R15" activeCellId="0" sqref="R15:R15"/>
+      <x:selection activeCell="A5" activeCellId="0" sqref="A5:A5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -825,7 +825,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C1" t="s">
         <x:v>9</x:v>
@@ -833,22 +833,22 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2">
-        <x:v>320</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B2">
         <x:v>313</x:v>
       </x:c>
       <x:c r="C2">
         <x:f>ROUNDUP(SUM(A2,A4,A6,A8,A10,A12,B2,B4,B6,B8,B10)/11,2)</x:f>
-        <x:v>311.73000000000002</x:v>
+        <x:v>318.63999999999999</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
         <x:v>1</x:v>
-      </x:c>
-      <x:c r="B3" t="s">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
@@ -864,12 +864,12 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6">
-        <x:v>320</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B6">
         <x:v>319</x:v>
@@ -880,23 +880,23 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8">
-        <x:v>302</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B8">
-        <x:v>285</x:v>
+        <x:v>322</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
@@ -904,12 +904,12 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="B10">
-        <x:v>305</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
@@ -918,7 +918,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -934,7 +934,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -950,7 +950,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/로아템레벨.xlsx
+++ b/로아템레벨.xlsx
@@ -17,31 +17,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <x:si>
+    <x:t>상의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목걸이</x:t>
+  </x:si>
+  <x:si>
     <x:t>모자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견갑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하의</x:t>
   </x:si>
   <x:si>
     <x:t>귀걸이</x:t>
   </x:si>
   <x:si>
-    <x:t>상의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하의</x:t>
+    <x:t>장갑</x:t>
   </x:si>
   <x:si>
     <x:t>무기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목걸이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견갑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장갑</x:t>
   </x:si>
   <x:si>
     <x:t>평균래밸</x:t>
@@ -811,7 +811,7 @@
   <x:dimension ref="A1:C12"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="A5" activeCellId="0" sqref="A5:A5"/>
+      <x:selection activeCell="C13" activeCellId="0" sqref="C13:C13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -822,10 +822,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C1" t="s">
         <x:v>9</x:v>
@@ -845,10 +845,10 @@
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
@@ -861,10 +861,10 @@
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
@@ -877,10 +877,10 @@
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
@@ -893,10 +893,10 @@
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
@@ -909,7 +909,7 @@
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
@@ -918,7 +918,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -934,7 +934,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -950,7 +950,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/로아템레벨.xlsx
+++ b/로아템레벨.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="9.1" lowestEdited="9.1" rupBuild="1.3237"/>
+  <x:fileVersion appName="HCell" lastEdited="9.1" lowestEdited="9.1" rupBuild="1.4249"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="14160" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="9510" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -17,31 +17,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <x:si>
-    <x:t>상의</x:t>
+    <x:t>귀걸이</x:t>
   </x:si>
   <x:si>
-    <x:t>목걸이</x:t>
+    <x:t>반지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장갑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견갑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기</x:t>
   </x:si>
   <x:si>
     <x:t>모자</x:t>
   </x:si>
   <x:si>
-    <x:t>견갑</x:t>
+    <x:t>상의</x:t>
   </x:si>
   <x:si>
-    <x:t>반지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>귀걸이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장갑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기</x:t>
+    <x:t>목걸이</x:t>
   </x:si>
   <x:si>
     <x:t>평균래밸</x:t>
@@ -188,6 +188,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -270,6 +271,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -304,6 +306,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -348,6 +351,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -391,6 +395,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -451,6 +456,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -471,6 +477,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -501,6 +508,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -811,7 +819,7 @@
   <x:dimension ref="A1:C12"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="C13" activeCellId="0" sqref="C13:C13"/>
+      <x:selection activeCell="B10" activeCellId="0" sqref="B10:B10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -822,10 +830,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C1" t="s">
         <x:v>9</x:v>
@@ -833,14 +841,14 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2">
-        <x:v>325</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B2">
-        <x:v>313</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="C2">
         <x:f>ROUNDUP(SUM(A2,A4,A6,A8,A10,A12,B2,B4,B6,B8,B10)/11,2)</x:f>
-        <x:v>318.63999999999999</x:v>
+        <x:v>339.63999999999999</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
@@ -848,73 +856,73 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4">
-        <x:v>320</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B4">
-        <x:v>305</x:v>
+        <x:v>345</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
         <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" t="s">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6">
-        <x:v>325</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B6">
-        <x:v>319</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8">
-        <x:v>322</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B8">
-        <x:v>322</x:v>
+        <x:v>325</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10">
-        <x:v>320</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B10">
-        <x:v>314</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12">
-        <x:v>320</x:v>
+        <x:v>345</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/로아템레벨.xlsx
+++ b/로아템레벨.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="9.1" lowestEdited="9.1" rupBuild="1.4249"/>
+  <x:fileVersion appName="HCell" lastEdited="9.1" lowestEdited="9.1" rupBuild="1.3237"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="9510" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="14160" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -17,13 +17,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <x:si>
-    <x:t>귀걸이</x:t>
+    <x:t>장갑</x:t>
   </x:si>
   <x:si>
-    <x:t>반지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장갑</x:t>
+    <x:t>귀걸이</x:t>
   </x:si>
   <x:si>
     <x:t>견갑</x:t>
@@ -32,16 +29,19 @@
     <x:t>하의</x:t>
   </x:si>
   <x:si>
+    <x:t>상의</x:t>
+  </x:si>
+  <x:si>
     <x:t>무기</x:t>
   </x:si>
   <x:si>
     <x:t>모자</x:t>
   </x:si>
   <x:si>
-    <x:t>상의</x:t>
+    <x:t>목걸이</x:t>
   </x:si>
   <x:si>
-    <x:t>목걸이</x:t>
+    <x:t>반지</x:t>
   </x:si>
   <x:si>
     <x:t>평균래밸</x:t>
@@ -188,7 +188,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -271,7 +270,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -306,7 +304,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -351,7 +348,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -395,7 +391,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -456,7 +451,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -477,7 +471,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -508,7 +501,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -819,7 +811,7 @@
   <x:dimension ref="A1:C12"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="B10" activeCellId="0" sqref="B10:B10"/>
+      <x:selection activeCell="I8" activeCellId="0" sqref="I8:I8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -833,7 +825,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C1" t="s">
         <x:v>9</x:v>
@@ -841,22 +833,22 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2">
-        <x:v>340</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B2">
         <x:v>342</x:v>
       </x:c>
       <x:c r="C2">
         <x:f>ROUNDUP(SUM(A2,A4,A6,A8,A10,A12,B2,B4,B6,B8,B10)/11,2)</x:f>
-        <x:v>339.63999999999999</x:v>
+        <x:v>342.63999999999999</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
@@ -869,15 +861,15 @@
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6">
-        <x:v>342</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B6">
         <x:v>328</x:v>
@@ -885,15 +877,15 @@
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8">
-        <x:v>340</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="B8">
         <x:v>325</x:v>
@@ -901,10 +893,10 @@
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">

--- a/로아템레벨.xlsx
+++ b/로아템레벨.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="9.1" lowestEdited="9.1" rupBuild="1.3237"/>
+  <x:fileVersion appName="HCell" lastEdited="9.1" lowestEdited="9.1" rupBuild="1.4249"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="14160" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="9510" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -20,25 +20,25 @@
     <x:t>장갑</x:t>
   </x:si>
   <x:si>
+    <x:t>하의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목걸이</x:t>
+  </x:si>
+  <x:si>
     <x:t>귀걸이</x:t>
   </x:si>
   <x:si>
     <x:t>견갑</x:t>
   </x:si>
   <x:si>
-    <x:t>하의</x:t>
-  </x:si>
-  <x:si>
     <x:t>상의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목걸이</x:t>
   </x:si>
   <x:si>
     <x:t>반지</x:t>
@@ -188,6 +188,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -270,6 +271,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -304,6 +306,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -348,6 +351,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -391,6 +395,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -451,6 +456,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -471,6 +477,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -501,6 +508,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -811,7 +819,7 @@
   <x:dimension ref="A1:C12"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="I8" activeCellId="0" sqref="I8:I8"/>
+      <x:selection activeCell="E7" activeCellId="0" sqref="E7:E7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -822,10 +830,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C1" t="s">
         <x:v>9</x:v>
@@ -845,10 +853,10 @@
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
@@ -861,10 +869,10 @@
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" t="s">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
@@ -877,7 +885,7 @@
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B7" t="s">
         <x:v>8</x:v>
@@ -909,7 +917,7 @@
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">

--- a/로아템레벨.xlsx
+++ b/로아템레벨.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="9.1" lowestEdited="9.1" rupBuild="1.4249"/>
+  <x:fileVersion appName="HCell" lastEdited="9.1" lowestEdited="9.1" rupBuild="1.3237"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="9510" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="14160" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -17,19 +17,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <x:si>
-    <x:t>장갑</x:t>
+    <x:t>평균래밸</x:t>
   </x:si>
   <x:si>
     <x:t>하의</x:t>
   </x:si>
   <x:si>
-    <x:t>모자</x:t>
+    <x:t>목걸이</x:t>
   </x:si>
   <x:si>
-    <x:t>무기</x:t>
+    <x:t>장갑</x:t>
   </x:si>
   <x:si>
-    <x:t>목걸이</x:t>
+    <x:t>모자</x:t>
   </x:si>
   <x:si>
     <x:t>귀걸이</x:t>
@@ -44,7 +44,7 @@
     <x:t>반지</x:t>
   </x:si>
   <x:si>
-    <x:t>평균래밸</x:t>
+    <x:t>무기</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -188,7 +188,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -271,7 +270,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -306,7 +304,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -351,7 +348,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -395,7 +391,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -456,7 +451,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -477,7 +471,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -508,7 +501,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -819,7 +811,7 @@
   <x:dimension ref="A1:C12"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="E7" activeCellId="0" sqref="E7:E7"/>
+      <x:selection activeCell="C3" activeCellId="0" sqref="C3:C3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -830,25 +822,25 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B1" t="s">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="C1" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2">
-        <x:v>350</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="B2">
-        <x:v>342</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C2">
-        <x:f>ROUNDUP(SUM(A2,A4,A6,A8,A10,A12,B2,B4,B6,B8,B10)/11,2)</x:f>
-        <x:v>342.63999999999999</x:v>
+        <x:f>ROUND(SUM(A2,A4,A6,A8,A10,A12,B2,B4,B6,B8,B10)/11,2)</x:f>
+        <x:v>353.18000000000001</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
@@ -861,7 +853,7 @@
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4">
-        <x:v>340</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="B4">
         <x:v>345</x:v>
@@ -877,7 +869,7 @@
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6">
-        <x:v>345</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="B6">
         <x:v>328</x:v>
@@ -896,12 +888,12 @@
         <x:v>360</x:v>
       </x:c>
       <x:c r="B8">
-        <x:v>325</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B9" t="s">
         <x:v>8</x:v>
@@ -909,7 +901,7 @@
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10">
-        <x:v>342</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="B10">
         <x:v>347</x:v>
@@ -917,12 +909,12 @@
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12">
-        <x:v>345</x:v>
+        <x:v>356</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/로아템레벨.xlsx
+++ b/로아템레벨.xlsx
@@ -15,36 +15,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <x:si>
     <x:t>평균래밸</x:t>
   </x:si>
   <x:si>
+    <x:t>반지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견갑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목걸이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>귀걸이</x:t>
+  </x:si>
+  <x:si>
     <x:t>하의</x:t>
   </x:si>
   <x:si>
-    <x:t>목걸이</x:t>
+    <x:t>모자</x:t>
   </x:si>
   <x:si>
     <x:t>장갑</x:t>
   </x:si>
   <x:si>
-    <x:t>모자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>귀걸이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견갑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기</x:t>
+    <x:t>총합</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -811,92 +814,100 @@
   <x:dimension ref="A1:C12"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="C3" activeCellId="0" sqref="C3:C3"/>
+      <x:selection activeCell="C8" activeCellId="0" sqref="C8:C8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
   <x:cols>
     <x:col min="1" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B1" t="s">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="C1" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2">
-        <x:v>360</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="B2">
-        <x:v>356</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C2">
-        <x:f>ROUND(SUM(A2,A4,A6,A8,A10,A12,B2,B4,B6,B8,B10)/11,2)</x:f>
-        <x:v>353.18000000000001</x:v>
+        <x:f>SUM(A2,A4,A6,A8,A10,A12,B2,B4,B6,B8,B10)</x:f>
+        <x:v>4040</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
+    </x:row>
+    <x:row r="4" spans="1:3">
       <x:c r="A4">
         <x:v>360</x:v>
       </x:c>
       <x:c r="B4">
-        <x:v>345</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="C4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
       <x:c r="A5" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C5">
+        <x:f>ROUND(C2/11,2)</x:f>
+        <x:v>367.26999999999998</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6">
-        <x:v>360</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="B6">
-        <x:v>328</x:v>
+        <x:v>365</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
         <x:v>1</x:v>
-      </x:c>
-      <x:c r="B7" t="s">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8">
-        <x:v>360</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B8">
-        <x:v>353</x:v>
+        <x:v>374</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
@@ -904,12 +915,12 @@
         <x:v>360</x:v>
       </x:c>
       <x:c r="B10">
-        <x:v>347</x:v>
+        <x:v>370</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">

--- a/로아템레벨.xlsx
+++ b/로아템레벨.xlsx
@@ -20,34 +20,34 @@
     <x:t>평균래밸</x:t>
   </x:si>
   <x:si>
+    <x:t>상의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목걸이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견갑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>귀걸이</x:t>
+  </x:si>
+  <x:si>
     <x:t>반지</x:t>
   </x:si>
   <x:si>
-    <x:t>견갑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목걸이</x:t>
+    <x:t>장갑</x:t>
   </x:si>
   <x:si>
     <x:t>무기</x:t>
   </x:si>
   <x:si>
-    <x:t>귀걸이</x:t>
-  </x:si>
-  <x:si>
     <x:t>하의</x:t>
   </x:si>
   <x:si>
+    <x:t>총합</x:t>
+  </x:si>
+  <x:si>
     <x:t>모자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장갑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총합</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -191,6 +191,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -273,6 +274,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -307,6 +309,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -351,6 +354,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -394,6 +398,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -454,6 +459,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -474,6 +480,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -504,6 +511,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -814,7 +822,7 @@
   <x:dimension ref="A1:C12"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="C8" activeCellId="0" sqref="C8:C8"/>
+      <x:selection activeCell="D9" activeCellId="0" sqref="D9:D9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -826,13 +834,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
@@ -844,23 +852,23 @@
       </x:c>
       <x:c r="C2">
         <x:f>SUM(A2,A4,A6,A8,A10,A12,B2,B4,B6,B8,B10)</x:f>
-        <x:v>4040</x:v>
+        <x:v>4083</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4">
-        <x:v>360</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="B4">
-        <x:v>365</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="C4" t="s">
         <x:v>0</x:v>
@@ -868,14 +876,14 @@
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C5">
         <x:f>ROUND(C2/11,2)</x:f>
-        <x:v>367.26999999999998</x:v>
+        <x:v>371.18000000000001</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
@@ -888,15 +896,15 @@
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8">
-        <x:v>365</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="B8">
         <x:v>374</x:v>
@@ -904,10 +912,10 @@
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
@@ -920,12 +928,12 @@
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12">
-        <x:v>356</x:v>
+        <x:v>373</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/로아템레벨.xlsx
+++ b/로아템레벨.xlsx
@@ -20,34 +20,34 @@
     <x:t>평균래밸</x:t>
   </x:si>
   <x:si>
+    <x:t>견갑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>귀걸이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장갑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모자</x:t>
+  </x:si>
+  <x:si>
     <x:t>상의</x:t>
   </x:si>
   <x:si>
     <x:t>목걸이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견갑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>귀걸이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장갑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모자</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -191,7 +191,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -274,7 +273,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -309,7 +307,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -354,7 +351,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -398,7 +394,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -459,7 +454,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -480,7 +474,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -511,7 +504,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -822,7 +814,7 @@
   <x:dimension ref="A1:C12"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="D9" activeCellId="0" sqref="D9:D9"/>
+      <x:selection activeCell="Q19" activeCellId="0" sqref="Q19:Q19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -834,13 +826,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B1" t="s">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="C1" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
@@ -848,27 +840,27 @@
         <x:v>380</x:v>
       </x:c>
       <x:c r="B2">
-        <x:v>365</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="C2">
         <x:f>SUM(A2,A4,A6,A8,A10,A12,B2,B4,B6,B8,B10)</x:f>
-        <x:v>4083</x:v>
+        <x:v>4128</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" t="s">
-        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4">
-        <x:v>373</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="B4">
-        <x:v>373</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="C4" t="s">
         <x:v>0</x:v>
@@ -876,14 +868,14 @@
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" t="s">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C5">
         <x:f>ROUND(C2/11,2)</x:f>
-        <x:v>371.18000000000001</x:v>
+        <x:v>375.26999999999998</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
@@ -896,15 +888,15 @@
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8">
-        <x:v>370</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="B8">
         <x:v>374</x:v>
@@ -915,12 +907,12 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10">
-        <x:v>360</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="B10">
         <x:v>370</x:v>
@@ -928,12 +920,12 @@
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12">
-        <x:v>373</x:v>
+        <x:v>379</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/로아템레벨.xlsx
+++ b/로아템레벨.xlsx
@@ -17,37 +17,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <x:si>
+    <x:t>귀걸이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장갑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목걸이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견갑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기</x:t>
+  </x:si>
+  <x:si>
     <x:t>평균래밸</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견갑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>귀걸이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장갑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목걸이</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -191,6 +191,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -273,6 +274,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -307,6 +309,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -351,6 +354,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -394,6 +398,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -454,6 +459,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -474,6 +480,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -504,6 +511,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -814,7 +822,7 @@
   <x:dimension ref="A1:C12"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="Q19" activeCellId="0" sqref="Q19:Q19"/>
+      <x:selection activeCell="G13" activeCellId="0" sqref="G13:G13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -826,13 +834,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C1" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
@@ -840,19 +848,19 @@
         <x:v>380</x:v>
       </x:c>
       <x:c r="B2">
-        <x:v>373</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="C2">
         <x:f>SUM(A2,A4,A6,A8,A10,A12,B2,B4,B6,B8,B10)</x:f>
-        <x:v>4128</x:v>
+        <x:v>4131</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" t="s">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -863,19 +871,19 @@
         <x:v>376</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" t="s">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C5">
         <x:f>ROUND(C2/11,2)</x:f>
-        <x:v>375.26999999999998</x:v>
+        <x:v>375.55000000000001</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
@@ -888,10 +896,10 @@
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" t="s">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
@@ -904,10 +912,10 @@
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
@@ -920,7 +928,7 @@
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
